--- a/table/Service.xlsx
+++ b/table/Service.xlsx
@@ -14,72 +14,12 @@
   <sheets>
     <sheet name="Service" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Davy:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Droid Sans Fallback"/>
-            <family val="2"/>
-          </rPr>
-          <t>分号分割</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Davy:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Droid Sans Fallback"/>
-            <family val="2"/>
-          </rPr>
-          <t>客户端看到的名字</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>ProtoTypeName: "gamedef.ServiceFile" RowFieldName: "Service"</t>
   </si>
@@ -87,97 +27,94 @@
     <t>服务器英文名</t>
   </si>
   <si>
+    <t>版本号</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devlocal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>可用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>IP</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
-      <t>列表</t>
+      <t>地址</t>
     </r>
-  </si>
-  <si>
-    <t>服务器显示中文名</t>
-  </si>
-  <si>
-    <r>
-      <t>AutoID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>生成分组</t>
-    </r>
-  </si>
-  <si>
-    <t>可见大区名</t>
-  </si>
-  <si>
-    <t>归属大区名</t>
-  </si>
-  <si>
-    <t>版本号</t>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPArray</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DisplayName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorldID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>VisibleZone</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZoneName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Version</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>devlocal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client-&gt;gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game-&gt;gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>127.0.0.1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#LocalAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PeerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PeerIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -186,29 +123,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -262,11 +186,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,8 +360,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -479,8 +403,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -522,8 +446,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -565,8 +489,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -608,8 +532,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -908,126 +832,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.88671875"/>
-    <col min="2" max="2" width="27.6640625"/>
-    <col min="3" max="3" width="20.21875"/>
-    <col min="4" max="6" width="18.44140625"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="14.77734375"/>
     <col min="8" max="1004" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="str">
-        <f>A4</f>
-        <v>devlocal</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
       <c r="E4" t="str">
-        <f>A4</f>
-        <v>devlocal</v>
-      </c>
-      <c r="F4" t="str">
-        <f>A4</f>
-        <v>devlocal</v>
+        <f>B4</f>
+        <v>192.168.0.7</v>
+      </c>
+      <c r="F4">
+        <v>8001</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>7001</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A1">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:D1">
     <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
+  <conditionalFormatting sqref="A1:D1">
     <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="3" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="2" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/table/Service.xlsx
+++ b/table/Service.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\cellorigin\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\cellorigin\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>ProtoTypeName: "gamedef.ServiceFile" RowFieldName: "Service"</t>
   </si>
@@ -35,10 +35,6 @@
   </si>
   <si>
     <t>Version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>devlocal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,39 +70,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>127.0.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#LocalAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PeerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PeerIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>client-&gt;gate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game-&gt;gate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.0.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#LocalAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PeerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PeerIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端索引</t>
+    <t>svc-&gt;gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devlocal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,55 +192,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="微软雅黑"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="微软雅黑"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="微软雅黑"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="微软雅黑"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <sz val="11"/>
@@ -839,7 +787,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -866,19 +814,19 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -889,19 +837,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>2</v>
@@ -909,17 +857,17 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E4" t="str">
         <f>B4</f>
-        <v>192.168.0.7</v>
+        <v>127.0.0.1</v>
       </c>
       <c r="F4">
         <v>8001</v>
@@ -930,13 +878,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>7001</v>
@@ -945,10 +893,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/table/Service.xlsx
+++ b/table/Service.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\cellorigin\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\cellorigin\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>ProtoTypeName: "gamedef.ServiceFile" RowFieldName: "Service"</t>
   </si>
@@ -310,7 +310,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -353,7 +353,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -396,7 +396,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -439,7 +439,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -482,7 +482,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -784,10 +784,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -865,6 +865,9 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="E4" t="str">
         <f>B4</f>
         <v>127.0.0.1</v>
@@ -880,14 +883,55 @@
       <c r="A5" t="s">
         <v>18</v>
       </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="str">
+        <f>B5</f>
+        <v>127.0.0.1</v>
+      </c>
+      <c r="F5">
+        <v>8002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>7001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>7002</v>
       </c>
     </row>
   </sheetData>

--- a/table/Service.xlsx
+++ b/table/Service.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>ProtoTypeName: "gamedef.ServiceFile" RowFieldName: "Service"</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>devlocal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -784,10 +796,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -797,11 +809,11 @@
     <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375"/>
-    <col min="8" max="1004" width="8.5546875"/>
+    <col min="8" max="8" width="14.77734375"/>
+    <col min="9" max="1005" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -809,7 +821,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -829,10 +841,13 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -852,10 +867,13 @@
         <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -873,13 +891,16 @@
         <v>127.0.0.1</v>
       </c>
       <c r="F4">
-        <v>8001</v>
-      </c>
-      <c r="G4">
+        <v>8101</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -897,10 +918,10 @@
         <v>127.0.0.1</v>
       </c>
       <c r="F5">
-        <v>8002</v>
+        <v>8102</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -914,10 +935,13 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>7001</v>
+        <v>7101</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -931,7 +955,7 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>7002</v>
+        <v>7102</v>
       </c>
     </row>
   </sheetData>

--- a/table/Service.xlsx
+++ b/table/Service.xlsx
@@ -799,7 +799,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -891,7 +891,7 @@
         <v>127.0.0.1</v>
       </c>
       <c r="F4">
-        <v>8101</v>
+        <v>8201</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
@@ -918,7 +918,7 @@
         <v>127.0.0.1</v>
       </c>
       <c r="F5">
-        <v>8102</v>
+        <v>8202</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -935,7 +935,7 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>7101</v>
+        <v>7201</v>
       </c>
       <c r="G6" t="s">
         <v>21</v>
@@ -955,7 +955,7 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>7102</v>
+        <v>7202</v>
       </c>
     </row>
   </sheetData>

--- a/table/Service.xlsx
+++ b/table/Service.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\cellorigin\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\cellorigin\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>ProtoTypeName: "gamedef.ServiceFile" RowFieldName: "Service"</t>
   </si>
@@ -94,14 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>client-&gt;gate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>svc-&gt;gate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>devlocal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,6 +107,45 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client-&gt;agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svc-&gt;agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainConfig</t>
+  </si>
+  <si>
+    <t>是否主配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client-&gt;login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地测试0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地测试1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,9 +351,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -363,9 +394,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -406,9 +437,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -449,9 +480,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -492,9 +523,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -796,32 +827,34 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.88671875"/>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375"/>
-    <col min="9" max="1005" width="8.5546875"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375"/>
+    <col min="10" max="1006" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -829,25 +862,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
         <v>4</v>
       </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -855,115 +894,151 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="E4" t="str">
+      <c r="F4" t="str">
         <f>B4</f>
         <v>127.0.0.1</v>
       </c>
-      <c r="F4">
-        <v>8201</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+      <c r="G4">
+        <v>8101</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="str">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
         <f>B5</f>
         <v>127.0.0.1</v>
       </c>
-      <c r="F5">
+      <c r="G5">
+        <v>8201</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <f>B6</f>
+        <v>127.0.0.1</v>
+      </c>
+      <c r="G6">
         <v>8202</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="F6">
+      <c r="G7">
         <v>7201</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7">
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F8" t="s">
         <v>10</v>
       </c>
-      <c r="F7">
+      <c r="G8">
         <v>7202</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:D1">
+  <conditionalFormatting sqref="A1:E1">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:D1">
+  <conditionalFormatting sqref="A1:E1">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/table/Service.xlsx
+++ b/table/Service.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\cellorigin\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\cellorigin\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>ProtoTypeName: "gamedef.ServiceFile" RowFieldName: "Service"</t>
   </si>
@@ -146,6 +146,25 @@
   </si>
   <si>
     <t>本地测试1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBConnCount</t>
+  </si>
+  <si>
+    <t>数据库连接地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库连接数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:27017/test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,10 +846,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -842,10 +861,13 @@
     <col min="5" max="5" width="11.77734375" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" customWidth="1"/>
     <col min="9" max="9" width="14.77734375"/>
-    <col min="10" max="1006" width="8.5546875"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="1006" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,7 +876,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -885,8 +907,14 @@
       <c r="J2" t="s">
         <v>22</v>
       </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -917,8 +945,14 @@
       <c r="J3" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -944,8 +978,14 @@
       <c r="J4" t="s">
         <v>25</v>
       </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -972,7 +1012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -996,7 +1036,7 @@
         <v>8202</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1016,7 +1056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
